--- a/sprawozdanie1/graphs/Dane_TF.xlsx
+++ b/sprawozdanie1/graphs/Dane_TF.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7992" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_xltb_storage_" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Places</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>MAKS</t>
   </si>
 </sst>
 </file>
@@ -152,10 +155,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9759,14 +9762,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -9789,18 +9792,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AR67"/>
+  <dimension ref="B2:AR68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK29" sqref="AK29:AR29"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="28" max="28" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:44" ht="33.6" x14ac:dyDescent="0.65">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
@@ -9811,77 +9814,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="T5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="T5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AK5" s="5" t="s">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AK5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="T7" s="4" t="s">
+      <c r="I7" s="5"/>
+      <c r="T7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="4"/>
-      <c r="W7" s="4" t="s">
+      <c r="U7" s="5"/>
+      <c r="W7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4" t="s">
+      <c r="X7" s="5"/>
+      <c r="Z7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA7" s="4"/>
-      <c r="AK7" s="4" t="s">
+      <c r="AA7" s="5"/>
+      <c r="AK7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AL7" s="4"/>
-      <c r="AN7" s="4" t="s">
+      <c r="AL7" s="5"/>
+      <c r="AN7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AO7" s="4"/>
-      <c r="AQ7" s="4" t="s">
+      <c r="AO7" s="5"/>
+      <c r="AQ7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AR7" s="4"/>
+      <c r="AR7" s="5"/>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -10011,7 +10014,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
@@ -10141,7 +10144,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>15</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>20</v>
       </c>
@@ -10336,77 +10339,77 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="T17" s="5" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="T17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AK17" s="5" t="s">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AK17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="F19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="T19" s="4" t="s">
+      <c r="I19" s="5"/>
+      <c r="T19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="W19" s="4" t="s">
+      <c r="U19" s="5"/>
+      <c r="W19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="4"/>
-      <c r="Z19" s="4" t="s">
+      <c r="X19" s="5"/>
+      <c r="Z19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA19" s="4"/>
-      <c r="AK19" s="4" t="s">
+      <c r="AA19" s="5"/>
+      <c r="AK19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AL19" s="4"/>
-      <c r="AN19" s="4" t="s">
+      <c r="AL19" s="5"/>
+      <c r="AN19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AO19" s="4"/>
-      <c r="AQ19" s="4" t="s">
+      <c r="AO19" s="5"/>
+      <c r="AQ19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AR19" s="4"/>
+      <c r="AR19" s="5"/>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>5</v>
       </c>
@@ -10601,7 +10604,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
@@ -10731,7 +10734,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>15</v>
       </c>
@@ -10796,7 +10799,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>20</v>
       </c>
@@ -10861,77 +10864,77 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="T29" s="5" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="T29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AK29" s="5" t="s">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AK29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="C31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="F31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="T31" s="4" t="s">
+      <c r="I31" s="5"/>
+      <c r="T31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="U31" s="4"/>
-      <c r="W31" s="4" t="s">
+      <c r="U31" s="5"/>
+      <c r="W31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X31" s="4"/>
-      <c r="Z31" s="4" t="s">
+      <c r="X31" s="5"/>
+      <c r="Z31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AA31" s="4"/>
-      <c r="AK31" s="4" t="s">
+      <c r="AA31" s="5"/>
+      <c r="AK31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="AL31" s="4"/>
-      <c r="AN31" s="4" t="s">
+      <c r="AL31" s="5"/>
+      <c r="AN31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AO31" s="4"/>
-      <c r="AQ31" s="4" t="s">
+      <c r="AO31" s="5"/>
+      <c r="AQ31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="AR31" s="4"/>
+      <c r="AR31" s="5"/>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>3</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5</v>
       </c>
@@ -11126,7 +11129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>7</v>
       </c>
@@ -11191,7 +11194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>10</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>15</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>20</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>12</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2</v>
       </c>
@@ -11435,7 +11438,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>3</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="47" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
@@ -11511,7 +11514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:44" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>7</v>
       </c>
@@ -11549,7 +11552,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>10</v>
       </c>
@@ -11587,7 +11590,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>15</v>
       </c>
@@ -11625,7 +11628,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>20</v>
       </c>
@@ -11663,7 +11666,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>3</v>
       </c>
@@ -11739,7 +11742,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>5</v>
       </c>
@@ -11777,7 +11780,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>7</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>10</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>15</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>20</v>
       </c>
@@ -11929,7 +11932,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>3</v>
       </c>
@@ -12005,7 +12008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>5</v>
       </c>
@@ -12043,7 +12046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>7</v>
       </c>
@@ -12081,7 +12084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>10</v>
       </c>
@@ -12119,7 +12122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>15</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>20</v>
       </c>
@@ -12193,15 +12196,83 @@
       </c>
       <c r="O67">
         <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <f>MAX(C45:C67)</f>
+        <v>84.7</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:O68" si="27">MAX(D45:D67)</f>
+        <v>47.8</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="27"/>
+        <v>80</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="27"/>
+        <v>85.6</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="27"/>
+        <v>54.3</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="27"/>
+        <v>87</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="27"/>
+        <v>58.7</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="27"/>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="AK29:AR29"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AN31:AO31"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="AK5:AR5"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AK17:AR17"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="T29:AA29"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="T5:AA5"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="T17:AA17"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:F31"/>
@@ -12209,30 +12280,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="T17:AA17"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="T29:AA29"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AK5:AR5"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AK17:AR17"/>
-    <mergeCell ref="AK19:AL19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="AK29:AR29"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AN31:AO31"/>
-    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
